--- a/assignment_starters/assign1_starter/oscillator_harmonic.xlsx
+++ b/assignment_starters/assign1_starter/oscillator_harmonic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyhogeveen/Dropbox/Fall_2020/teaching/DSPN_Fall2020_workdir/exercises/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyhogeveen/Dropbox/Fall_2020/teaching/DSPN_Fall2020_git/assignment_starters/assign1_starter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2479C861-A920-BC4C-9B72-51B4B2890964}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFC8547-00DB-0D43-B91B-73432DE95F20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37540" yWindow="860" windowWidth="27640" windowHeight="16940" xr2:uid="{99C3D685-1D4F-454D-ADDE-F2404028FA9B}"/>
   </bookViews>
@@ -211,153 +211,6 @@
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85249999999999992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.71237499999999987</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.53663124999999989</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.33405593749999984</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.11477782812499984</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.11023917265625013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.32974421480468763</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.53276204621289069</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.7091417753104492</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.85006441564248525</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.9484838351923971</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.99947906298268907</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1.0005003376238466</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.95149659538381171</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.85491802337458633</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.71559355019663162</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.54048939950884534</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.33836077884561677</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.11931411924010732</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.10569824632740751</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.32542569957855194</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.52888186785076885</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.70589394273044725</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.84761132047360332</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.94694813219307927</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.99893753730290125</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.000980065547578</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.95297359051487596</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.85731843595643009</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.71879735960016267</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.54433641526388721</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.34265865016441732</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.12384795255672659</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.10115514267880046</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.32110048078038744</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.52499079484295508</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.70263156916337499</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.84514076502562618</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.94539292263659602</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.99837543411573604</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-1.0014391738890893</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.95443095496798813</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.85970118829848752</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.72198636221406254</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.54817221801893434</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.34694946292285944</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.12837923468064158</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9.6609955295608368E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1454,7 +1307,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1525,26 +1378,6 @@
       <c r="C3">
         <v>0.05</v>
       </c>
-      <c r="D3">
-        <f>D2+H2</f>
-        <v>0.95</v>
-      </c>
-      <c r="E3">
-        <f>-1*$A$2*D3</f>
-        <v>-19</v>
-      </c>
-      <c r="F3">
-        <f>F2+G2</f>
-        <v>-1</v>
-      </c>
-      <c r="G3">
-        <f>E3*C3</f>
-        <v>-0.95000000000000007</v>
-      </c>
-      <c r="H3">
-        <f>(F3+G3)*C3</f>
-        <v>-9.7500000000000017E-2</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4">
@@ -1554,26 +1387,6 @@
       <c r="C4">
         <v>0.05</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D51" si="2">D3+H3</f>
-        <v>0.85249999999999992</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>-17.049999999999997</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F51" si="3">F3+G3</f>
-        <v>-1.9500000000000002</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G51" si="4">E4*C4</f>
-        <v>-0.85249999999999992</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H51" si="5">(F4+G4)*C4</f>
-        <v>-0.14012500000000003</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5">
@@ -1583,26 +1396,6 @@
       <c r="C5">
         <v>0.05</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="2"/>
-        <v>0.71237499999999987</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>-14.247499999999997</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="3"/>
-        <v>-2.8025000000000002</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="4"/>
-        <v>-0.71237499999999987</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="5"/>
-        <v>-0.17574375</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6">
@@ -1612,26 +1405,6 @@
       <c r="C6">
         <v>0.05</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="2"/>
-        <v>0.53663124999999989</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>-10.732624999999999</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="3"/>
-        <v>-3.514875</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="4"/>
-        <v>-0.53663125</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="5"/>
-        <v>-0.20257531250000002</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7">
@@ -1641,26 +1414,6 @@
       <c r="C7">
         <v>0.05</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>0.33405593749999984</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>-6.6811187499999969</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>-4.0515062500000001</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="4"/>
-        <v>-0.33405593749999984</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="5"/>
-        <v>-0.219278109375</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8">
@@ -1670,26 +1423,6 @@
       <c r="C8">
         <v>0.05</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>0.11477782812499984</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>-2.2955565624999967</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>-4.3855621874999997</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="4"/>
-        <v>-0.11477782812499984</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="5"/>
-        <v>-0.22501700078124998</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9">
@@ -1699,26 +1432,6 @@
       <c r="C9">
         <v>0.05</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>-0.11023917265625013</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>2.2047834531250028</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>-4.5003400156249995</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="4"/>
-        <v>0.11023917265625015</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="5"/>
-        <v>-0.21950504214843747</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10">
@@ -1728,26 +1441,6 @@
       <c r="C10">
         <v>0.05</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>-0.32974421480468763</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>6.5948842960937526</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>-4.3901008429687494</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="4"/>
-        <v>0.32974421480468763</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="5"/>
-        <v>-0.20301783140820309</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11">
@@ -1757,26 +1450,6 @@
       <c r="C11">
         <v>0.05</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>-0.53276204621289069</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>10.655240924257814</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>-4.0603566281640617</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
-        <v>0.53276204621289069</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="5"/>
-        <v>-0.17637972909755856</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12">
@@ -1786,26 +1459,6 @@
       <c r="C12">
         <v>0.05</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>-0.7091417753104492</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>14.182835506208985</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>-3.5275945819511709</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
-        <v>0.70914177531044931</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="5"/>
-        <v>-0.14092264033203608</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13">
@@ -1815,26 +1468,6 @@
       <c r="C13">
         <v>0.05</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>-0.85006441564248525</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>17.001288312849706</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>-2.8184528066407215</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
-        <v>0.85006441564248536</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="5"/>
-        <v>-9.8419419549911805E-2</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14">
@@ -1844,26 +1477,6 @@
       <c r="C14">
         <v>0.05</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>-0.9484838351923971</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>18.969676703847941</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>-1.968388390998236</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
-        <v>0.9484838351923971</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="5"/>
-        <v>-5.0995227790291954E-2</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15">
@@ -1873,26 +1486,6 @@
       <c r="C15">
         <v>0.05</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>-0.99947906298268907</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>19.989581259653782</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
-        <v>-1.0199045558058391</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="4"/>
-        <v>0.99947906298268918</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="5"/>
-        <v>-1.0212746411574936E-3</v>
-      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16">
@@ -1902,28 +1495,8 @@
       <c r="C16">
         <v>0.05</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>-1.0005003376238466</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>20.010006752476933</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>-2.0425492823149871E-2</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>1.0005003376238466</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="5"/>
-        <v>4.9003742240034842E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17">
         <f t="shared" si="1"/>
         <v>0.75000000000000011</v>
@@ -1931,28 +1504,8 @@
       <c r="C17">
         <v>0.05</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>-0.95149659538381171</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>19.029931907676236</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>0.98007484480069673</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>0.95149659538381182</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="5"/>
-        <v>9.6578572009225427E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <f t="shared" si="1"/>
         <v>0.80000000000000016</v>
@@ -1960,28 +1513,8 @@
       <c r="C18">
         <v>0.05</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>-0.85491802337458633</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>17.098360467491727</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>1.9315714401845085</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>0.85491802337458633</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="5"/>
-        <v>0.13932447317795474</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19">
         <f t="shared" si="1"/>
         <v>0.8500000000000002</v>
@@ -1989,28 +1522,8 @@
       <c r="C19">
         <v>0.05</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>-0.71559355019663162</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>14.311871003932632</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="3"/>
-        <v>2.7864894635590947</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
-        <v>0.71559355019663162</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="5"/>
-        <v>0.17510415068778631</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20">
         <f t="shared" si="1"/>
         <v>0.90000000000000024</v>
@@ -2018,28 +1531,8 @@
       <c r="C20">
         <v>0.05</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>-0.54048939950884534</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>10.809787990176908</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="3"/>
-        <v>3.5020830137557262</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="4"/>
-        <v>0.54048939950884545</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="5"/>
-        <v>0.20212862066322859</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21">
         <f t="shared" si="1"/>
         <v>0.95000000000000029</v>
@@ -2047,28 +1540,8 @@
       <c r="C21">
         <v>0.05</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>-0.33836077884561677</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>6.767215576912335</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="3"/>
-        <v>4.0425724132645717</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="4"/>
-        <v>0.33836077884561677</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="5"/>
-        <v>0.21904665960550945</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22">
         <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
@@ -2076,28 +1549,8 @@
       <c r="C22">
         <v>0.05</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>-0.11931411924010732</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>2.3862823848021462</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="3"/>
-        <v>4.3809331921101888</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="4"/>
-        <v>0.11931411924010732</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="5"/>
-        <v>0.22501236556751483</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23">
         <f t="shared" si="1"/>
         <v>1.0500000000000003</v>
@@ -2105,28 +1558,8 @@
       <c r="C23">
         <v>0.05</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="2"/>
-        <v>0.10569824632740751</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>-2.1139649265481504</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="3"/>
-        <v>4.5002473113502965</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="4"/>
-        <v>-0.10569824632740753</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="5"/>
-        <v>0.21972745325114446</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24">
         <f t="shared" si="1"/>
         <v>1.1000000000000003</v>
@@ -2134,28 +1567,8 @@
       <c r="C24">
         <v>0.05</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="2"/>
-        <v>0.32542569957855194</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>-6.5085139915710393</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="3"/>
-        <v>4.3945490650228889</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="4"/>
-        <v>-0.325425699578552</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="5"/>
-        <v>0.20345616827221688</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25">
         <f t="shared" si="1"/>
         <v>1.1500000000000004</v>
@@ -2163,28 +1576,8 @@
       <c r="C25">
         <v>0.05</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="2"/>
-        <v>0.52888186785076885</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>-10.577637357015377</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="3"/>
-        <v>4.0691233654443373</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="4"/>
-        <v>-0.52888186785076885</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="5"/>
-        <v>0.17701207487967843</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26">
         <f t="shared" si="1"/>
         <v>1.2000000000000004</v>
@@ -2192,28 +1585,8 @@
       <c r="C26">
         <v>0.05</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="2"/>
-        <v>0.70589394273044725</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>-14.117878854608945</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="3"/>
-        <v>3.5402414975935685</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="4"/>
-        <v>-0.70589394273044725</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="5"/>
-        <v>0.14171737774315607</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27">
         <f t="shared" si="1"/>
         <v>1.2500000000000004</v>
@@ -2221,28 +1594,8 @@
       <c r="C27">
         <v>0.05</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="2"/>
-        <v>0.84761132047360332</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>-16.952226409472068</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="3"/>
-        <v>2.8343475548631214</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="4"/>
-        <v>-0.84761132047360344</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="5"/>
-        <v>9.9336811719475906E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28">
         <f t="shared" si="1"/>
         <v>1.3000000000000005</v>
@@ -2250,28 +1603,8 @@
       <c r="C28">
         <v>0.05</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="2"/>
-        <v>0.94694813219307927</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>-18.938962643861586</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="3"/>
-        <v>1.9867362343895181</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="4"/>
-        <v>-0.94694813219307938</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="5"/>
-        <v>5.1989405109821932E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29">
         <f t="shared" si="1"/>
         <v>1.3500000000000005</v>
@@ -2279,28 +1612,8 @@
       <c r="C29">
         <v>0.05</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="2"/>
-        <v>0.99893753730290125</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>-19.978750746058026</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="3"/>
-        <v>1.0397881021964386</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="4"/>
-        <v>-0.99893753730290136</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="5"/>
-        <v>2.0425282446768613E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30">
         <f t="shared" si="1"/>
         <v>1.4000000000000006</v>
@@ -2308,28 +1621,8 @@
       <c r="C30">
         <v>0.05</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="2"/>
-        <v>1.000980065547578</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>-20.019601310951561</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="3"/>
-        <v>4.0850564893537222E-2</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="4"/>
-        <v>-1.000980065547578</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="5"/>
-        <v>-4.8006475032702042E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31">
         <f t="shared" si="1"/>
         <v>1.4500000000000006</v>
@@ -2337,28 +1630,8 @@
       <c r="C31">
         <v>0.05</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="2"/>
-        <v>0.95297359051487596</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>-19.05947181029752</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="3"/>
-        <v>-0.96012950065404079</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="4"/>
-        <v>-0.95297359051487607</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="5"/>
-        <v>-9.5655154558445851E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32">
         <f t="shared" si="1"/>
         <v>1.5000000000000007</v>
@@ -2366,28 +1639,8 @@
       <c r="C32">
         <v>0.05</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="2"/>
-        <v>0.85731843595643009</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>-17.146368719128603</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="3"/>
-        <v>-1.9131030911689169</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="4"/>
-        <v>-0.8573184359564302</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="5"/>
-        <v>-0.13852107635626737</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33">
         <f t="shared" si="1"/>
         <v>1.5500000000000007</v>
@@ -2395,28 +1648,8 @@
       <c r="C33">
         <v>0.05</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="2"/>
-        <v>0.71879735960016267</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>-14.375947192003252</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="3"/>
-        <v>-2.7704215271253472</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="4"/>
-        <v>-0.71879735960016267</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="5"/>
-        <v>-0.17446094433627551</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34">
         <f t="shared" si="1"/>
         <v>1.6000000000000008</v>
@@ -2424,28 +1657,8 @@
       <c r="C34">
         <v>0.05</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="2"/>
-        <v>0.54433641526388721</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>-10.886728305277744</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="3"/>
-        <v>-3.4892188867255101</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="4"/>
-        <v>-0.54433641526388721</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="5"/>
-        <v>-0.20167776509946986</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35">
         <f t="shared" si="1"/>
         <v>1.6500000000000008</v>
@@ -2453,28 +1666,8 @@
       <c r="C35">
         <v>0.05</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>0.34265865016441732</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>-6.8531730032883464</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="3"/>
-        <v>-4.0335553019893968</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="4"/>
-        <v>-0.34265865016441732</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="5"/>
-        <v>-0.21881069760769073</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36">
         <f t="shared" si="1"/>
         <v>1.7000000000000008</v>
@@ -2482,28 +1675,8 @@
       <c r="C36">
         <v>0.05</v>
       </c>
-      <c r="D36">
-        <f t="shared" si="2"/>
-        <v>0.12384795255672659</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>-2.4769590511345321</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="3"/>
-        <v>-4.3762139521538144</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="4"/>
-        <v>-0.12384795255672661</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="5"/>
-        <v>-0.22500309523552706</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37">
         <f t="shared" si="1"/>
         <v>1.7500000000000009</v>
@@ -2511,28 +1684,8 @@
       <c r="C37">
         <v>0.05</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>-0.10115514267880046</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>2.0231028535760092</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="3"/>
-        <v>-4.5000619047105408</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="4"/>
-        <v>0.10115514267880046</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="5"/>
-        <v>-0.21994533810158701</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38">
         <f t="shared" si="1"/>
         <v>1.8000000000000009</v>
@@ -2540,28 +1693,8 @@
       <c r="C38">
         <v>0.05</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="2"/>
-        <v>-0.32110048078038744</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>6.4220096156077489</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="3"/>
-        <v>-4.3989067620317401</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="4"/>
-        <v>0.32110048078038744</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="5"/>
-        <v>-0.20389031406256763</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39">
         <f t="shared" si="1"/>
         <v>1.850000000000001</v>
@@ -2569,28 +1702,8 @@
       <c r="C39">
         <v>0.05</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="2"/>
-        <v>-0.52499079484295508</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>10.499815896859101</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="3"/>
-        <v>-4.0778062812513527</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="4"/>
-        <v>0.52499079484295508</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="5"/>
-        <v>-0.17764077432041991</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40">
         <f t="shared" si="1"/>
         <v>1.900000000000001</v>
@@ -2598,28 +1711,8 @@
       <c r="C40">
         <v>0.05</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
-        <v>-0.70263156916337499</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>14.052631383267499</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="3"/>
-        <v>-3.5528154864083978</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="4"/>
-        <v>0.70263156916337499</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="5"/>
-        <v>-0.14250919586225116</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41">
         <f t="shared" si="1"/>
         <v>1.9500000000000011</v>
@@ -2627,28 +1720,8 @@
       <c r="C41">
         <v>0.05</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="2"/>
-        <v>-0.84514076502562618</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>16.902815300512522</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="3"/>
-        <v>-2.850183917245023</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="4"/>
-        <v>0.84514076502562618</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="5"/>
-        <v>-0.10025215761096984</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42">
         <f t="shared" si="1"/>
         <v>2.0000000000000009</v>
@@ -2656,28 +1729,8 @@
       <c r="C42">
         <v>0.05</v>
       </c>
-      <c r="D42">
-        <f t="shared" si="2"/>
-        <v>-0.94539292263659602</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>18.907858452731922</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="3"/>
-        <v>-2.0050431522193968</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="4"/>
-        <v>0.94539292263659613</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="5"/>
-        <v>-5.2982511479140043E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43">
         <f t="shared" si="1"/>
         <v>2.0500000000000007</v>
@@ -2685,28 +1738,8 @@
       <c r="C43">
         <v>0.05</v>
       </c>
-      <c r="D43">
-        <f t="shared" si="2"/>
-        <v>-0.99837543411573604</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>19.967508682314723</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="3"/>
-        <v>-1.0596502295828008</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="4"/>
-        <v>0.99837543411573615</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="5"/>
-        <v>-3.0637397733532302E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44">
         <f t="shared" si="1"/>
         <v>2.1000000000000005</v>
@@ -2714,28 +1747,8 @@
       <c r="C44">
         <v>0.05</v>
       </c>
-      <c r="D44">
-        <f t="shared" si="2"/>
-        <v>-1.0014391738890893</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>20.028783477781786</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="3"/>
-        <v>-6.1274795467064602E-2</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="4"/>
-        <v>1.0014391738890893</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="5"/>
-        <v>4.7008218921101241E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45">
         <f t="shared" si="1"/>
         <v>2.1500000000000004</v>
@@ -2743,28 +1756,8 @@
       <c r="C45">
         <v>0.05</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="2"/>
-        <v>-0.95443095496798813</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>19.088619099359761</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="3"/>
-        <v>0.94016437842202472</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="4"/>
-        <v>0.95443095496798813</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="5"/>
-        <v>9.4729766669500642E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
@@ -2772,28 +1765,8 @@
       <c r="C46">
         <v>0.05</v>
       </c>
-      <c r="D46">
-        <f t="shared" si="2"/>
-        <v>-0.85970118829848752</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>17.194023765969749</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="3"/>
-        <v>1.8945953333900127</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="4"/>
-        <v>0.85970118829848752</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="5"/>
-        <v>0.13771482608442503</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47">
         <f t="shared" si="1"/>
         <v>2.25</v>
@@ -2801,28 +1774,8 @@
       <c r="C47">
         <v>0.05</v>
       </c>
-      <c r="D47">
-        <f t="shared" si="2"/>
-        <v>-0.72198636221406254</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
-        <v>14.439727244281251</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="3"/>
-        <v>2.7542965216885005</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="4"/>
-        <v>0.72198636221406254</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="5"/>
-        <v>0.17381414419512817</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48">
         <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
@@ -2830,28 +1783,8 @@
       <c r="C48">
         <v>0.05</v>
       </c>
-      <c r="D48">
-        <f t="shared" si="2"/>
-        <v>-0.54817221801893434</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>10.963444360378688</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="3"/>
-        <v>3.476282883902563</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="4"/>
-        <v>0.54817221801893445</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="5"/>
-        <v>0.2012227550960749</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49">
         <f t="shared" si="1"/>
         <v>2.3499999999999996</v>
@@ -2859,28 +1792,8 @@
       <c r="C49">
         <v>0.05</v>
       </c>
-      <c r="D49">
-        <f t="shared" si="2"/>
-        <v>-0.34694946292285944</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="0"/>
-        <v>6.9389892584571893</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="3"/>
-        <v>4.0244551019214976</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="4"/>
-        <v>0.3469494629228595</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="5"/>
-        <v>0.21857022824221786</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50">
         <f t="shared" si="1"/>
         <v>2.3999999999999995</v>
@@ -2888,54 +1801,14 @@
       <c r="C50">
         <v>0.05</v>
       </c>
-      <c r="D50">
-        <f t="shared" si="2"/>
-        <v>-0.12837923468064158</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="0"/>
-        <v>2.5675846936128317</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="3"/>
-        <v>4.3714045648443571</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="4"/>
-        <v>0.12837923468064158</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="5"/>
-        <v>0.22498918997624995</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51">
         <f t="shared" si="1"/>
         <v>2.4499999999999993</v>
       </c>
       <c r="C51">
         <v>0.05</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="2"/>
-        <v>9.6609955295608368E-2</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>-1.9321991059121673</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="3"/>
-        <v>4.499783799524999</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="4"/>
-        <v>-9.6609955295608368E-2</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="5"/>
-        <v>0.22015869221146953</v>
       </c>
     </row>
   </sheetData>
